--- a/results/TotalDiscountedCost.xlsx
+++ b/results/TotalDiscountedCost.xlsx
@@ -486,7 +486,7 @@
         <v>2017</v>
       </c>
       <c r="C4" t="n">
-        <v>11545845.65371468</v>
+        <v>11545845.65371469</v>
       </c>
     </row>
     <row r="5">
@@ -551,7 +551,7 @@
         <v>2022</v>
       </c>
       <c r="C9" t="n">
-        <v>9988036.274702925</v>
+        <v>9988036.274702922</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>9702663.809686571</v>
+        <v>9702663.809686566</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>2024</v>
       </c>
       <c r="C11" t="n">
-        <v>9425444.843695519</v>
+        <v>9425444.843695525</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>2026</v>
       </c>
       <c r="C13" t="n">
-        <v>8894542.236156998</v>
+        <v>8894542.236157</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>2027</v>
       </c>
       <c r="C14" t="n">
-        <v>8640412.457996069</v>
+        <v>8640412.457996074</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>2028</v>
       </c>
       <c r="C15" t="n">
-        <v>8393543.530616978</v>
+        <v>8393543.530616969</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>2029</v>
       </c>
       <c r="C16" t="n">
-        <v>8153728.001176952</v>
+        <v>8153728.001176951</v>
       </c>
     </row>
     <row r="17">
@@ -668,7 +668,7 @@
         <v>2031</v>
       </c>
       <c r="C18" t="n">
-        <v>7694456.791328057</v>
+        <v>7694456.791328055</v>
       </c>
     </row>
     <row r="19">
@@ -694,7 +694,7 @@
         <v>2033</v>
       </c>
       <c r="C20" t="n">
-        <v>7261054.735348909</v>
+        <v>7261054.735348906</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>2034</v>
       </c>
       <c r="C21" t="n">
-        <v>7053596.028616905</v>
+        <v>7053596.028616907</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>2035</v>
       </c>
       <c r="C22" t="n">
-        <v>6852064.713510797</v>
+        <v>6852064.713510796</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>2036</v>
       </c>
       <c r="C23" t="n">
-        <v>6656291.435983671</v>
+        <v>6656291.435983676</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>2037</v>
       </c>
       <c r="C24" t="n">
-        <v>6466111.680678219</v>
+        <v>6466111.680678217</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>2038</v>
       </c>
       <c r="C25" t="n">
-        <v>6281365.632636533</v>
+        <v>6281365.632636536</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>2039</v>
       </c>
       <c r="C26" t="n">
-        <v>6101898.043156155</v>
+        <v>6101898.043156156</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>2040</v>
       </c>
       <c r="C27" t="n">
-        <v>5927558.099031284</v>
+        <v>5927558.099031292</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>2041</v>
       </c>
       <c r="C28" t="n">
-        <v>5758199.296204576</v>
+        <v>5758199.296204578</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>2042</v>
       </c>
       <c r="C29" t="n">
-        <v>5593679.316322854</v>
+        <v>5593679.316322852</v>
       </c>
     </row>
     <row r="30">
@@ -837,7 +837,7 @@
         <v>2044</v>
       </c>
       <c r="C31" t="n">
-        <v>5278606.767088034</v>
+        <v>5278606.767088039</v>
       </c>
     </row>
     <row r="32">
@@ -863,7 +863,7 @@
         <v>2046</v>
       </c>
       <c r="C33" t="n">
-        <v>4981281.161436722</v>
+        <v>4981281.161436723</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>2047</v>
       </c>
       <c r="C34" t="n">
-        <v>4838958.842523634</v>
+        <v>4838958.842523637</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>2048</v>
       </c>
       <c r="C35" t="n">
-        <v>4700702.875589499</v>
+        <v>4700702.875589498</v>
       </c>
     </row>
     <row r="36">
@@ -915,7 +915,7 @@
         <v>2050</v>
       </c>
       <c r="C37" t="n">
-        <v>4435928.591170363</v>
+        <v>4435928.591170364</v>
       </c>
     </row>
   </sheetData>
